--- a/Report/plots/perf_data.xlsx
+++ b/Report/plots/perf_data.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27629"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="0" windowWidth="12620" windowHeight="14260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12975" yWindow="0" windowWidth="12615" windowHeight="13740" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="serial" sheetId="1" r:id="rId1"/>
-    <sheet name="scalar" sheetId="2" r:id="rId2"/>
-    <sheet name="AVX" sheetId="3" r:id="rId3"/>
+    <sheet name="ADI_serial" sheetId="1" r:id="rId1"/>
+    <sheet name="ADI_scalar" sheetId="2" r:id="rId2"/>
+    <sheet name="ADI_AVX" sheetId="3" r:id="rId3"/>
+    <sheet name="ADI_scaling" sheetId="5" r:id="rId4"/>
+    <sheet name="RW_runtime" sheetId="4" r:id="rId5"/>
+    <sheet name="RW_scaling" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>tmax</t>
   </si>
   <si>
     <t>n_steps</t>
@@ -79,15 +76,39 @@
   <si>
     <t>opIL3</t>
   </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Scalar</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>n_threads</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,11 +156,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -436,26 +459,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="9" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -470,90 +497,546 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2*2*((A2-2)*(4+(A2-3)*7))</f>
+        <v>848000</v>
       </c>
       <c r="D2" s="1">
-        <f>C2/B2</f>
-        <v>100000.00000000001</v>
+        <f>B2*2*((A2-2)*(5+(A2-3)*8))</f>
+        <v>976000</v>
       </c>
       <c r="E2" s="1">
-        <f>D2*2*((A2-2)*(4+(A2-3)*7))</f>
-        <v>5344400000.000001</v>
+        <f>B2*2*(A2-2+(A2-2)*(A2-3))</f>
+        <v>128000</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*2*((A2-2)*(5+(A2-3)*8))</f>
-        <v>6113200000.000001</v>
+        <f>C2+D2+E2</f>
+        <v>1952000</v>
       </c>
       <c r="G2" s="1">
-        <f>D2*2*(A2-2+(A2-2)*(A2-3))</f>
-        <v>768800000.00000012</v>
-      </c>
-      <c r="H2" s="1">
-        <f>E2+F2+G2</f>
-        <v>12226400000.000002</v>
+        <v>2660340</v>
+      </c>
+      <c r="H2" s="2">
+        <f>F2/G2</f>
+        <v>0.73374080004811415</v>
       </c>
       <c r="I2" s="1">
-        <v>58759736463</v>
-      </c>
-      <c r="J2" s="2">
-        <f>H2/I2</f>
-        <v>0.20807445260920726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>7875</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3934</v>
+      </c>
+      <c r="K2" s="1">
+        <v>940</v>
+      </c>
+      <c r="L2" s="5">
+        <f>$F2/(I2*64/10)</f>
+        <v>38.730158730158728</v>
+      </c>
+      <c r="M2" s="5">
+        <f>$F2/(J2*64/10)</f>
+        <v>77.529232333502804</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="M2:N11" si="0">$F2/(K2*64/10)</f>
+        <v>324.468085106383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C11" si="1">B3*2*((A3-2)*(4+(A3-3)*7))</f>
+        <v>3488000</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/B3</f>
-        <v>10000</v>
+        <f t="shared" ref="D3:D11" si="2">B3*2*((A3-2)*(5+(A3-3)*8))</f>
+        <v>4000000</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*2*((A3-2)*(4+(A3-3)*7))</f>
-        <v>124200000</v>
+        <f t="shared" ref="E3:E11" si="3">B3*2*(A3-2+(A3-2)*(A3-3))</f>
+        <v>512000</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*2*((A3-2)*(5+(A3-3)*8))</f>
-        <v>142200000</v>
+        <f t="shared" ref="F3:F11" si="4">C3+D3+E3</f>
+        <v>8000000</v>
       </c>
       <c r="G3" s="1">
-        <f>D3*2*(A3-2+(A3-2)*(A3-3))</f>
-        <v>18000000</v>
-      </c>
-      <c r="H3" s="1">
-        <f>E3+F3+G3</f>
-        <v>284400000</v>
+        <v>15212056</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="5">F3/G3</f>
+        <v>0.52589866879269964</v>
       </c>
       <c r="I3" s="1">
-        <v>1277663428</v>
-      </c>
-      <c r="J3" s="2">
-        <f>H3/I3</f>
-        <v>0.22259383321724069</v>
+        <v>8975</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3914</v>
+      </c>
+      <c r="K3" s="1">
+        <v>977</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L11" si="6">$F3/(I3*64/10)</f>
+        <v>139.27576601671308</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>319.3663771078181</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>1279.4268167860798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>14144000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>16192000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="3"/>
+        <v>2048000</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="4"/>
+        <v>32384000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>67465372</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4800092112439549</v>
+      </c>
+      <c r="I4" s="1">
+        <v>17861</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4862</v>
+      </c>
+      <c r="K4" s="1">
+        <v>946</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="6"/>
+        <v>283.29880745758919</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>1040.7239819004526</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>5348.8372093023263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>56960000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>65152000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="3"/>
+        <v>8192000</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="4"/>
+        <v>130304000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>283717286</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45927409583355455</v>
+      </c>
+      <c r="I5" s="1">
+        <v>20017453</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5791</v>
+      </c>
+      <c r="K5" s="1">
+        <v>982</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0171124168494363</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>3515.8003798998443</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>20733.197556008145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>200880000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>229680000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>28800000</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="4"/>
+        <v>459360000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1023417704</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44884898727528755</v>
+      </c>
+      <c r="I6" s="1">
+        <v>90096187</v>
+      </c>
+      <c r="J6" s="1">
+        <v>414650</v>
+      </c>
+      <c r="K6" s="1">
+        <v>983</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7966485862492716</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>173.09779331966718</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>73016.276703967451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>242</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>804960000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>920160000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>115200000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="4"/>
+        <v>1840320000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4149885946</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44346279004941114</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2545226463</v>
+      </c>
+      <c r="J7" s="1">
+        <v>199105307</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1526</v>
+      </c>
+      <c r="L7" s="5">
+        <f>$F7/(I7*64/10)</f>
+        <v>0.11297619452733153</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4442106256866374</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>188433.81389252949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>482</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>3222720000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>3683520000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>460800000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>7367040000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16714511968</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44075711059373002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8279550387</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3040574187</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1163</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.13902928857192301</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.37857981065600621</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>989767.84178847808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>962</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>12896640000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>14739840000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>1843200000</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="4"/>
+        <v>29479680000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>78836296474</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="5"/>
+        <v>0.37393537391399811</v>
+      </c>
+      <c r="I9" s="1">
+        <v>41517051230</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7318079178</v>
+      </c>
+      <c r="K9" s="1">
+        <v>287681</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.1109471858798966</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.6294274614911799</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>16011.484943392161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>1922</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>51598080000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>58970880000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>7372800000</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="4"/>
+        <v>117941760000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>354014868042</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.33315482101731247</v>
+      </c>
+      <c r="I10" s="1">
+        <v>194136835505</v>
+      </c>
+      <c r="J10" s="1">
+        <v>139489232975</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7893370650</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="6"/>
+        <v>9.4924798542548497E-2</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13211342271344223</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3346680166349465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>3842</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>206415360000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>235906560000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
+        <v>29491200000</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="4"/>
+        <v>471813120000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1545784109690</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.30522575374035898</v>
+      </c>
+      <c r="I11" s="1">
+        <v>984391427372</v>
+      </c>
+      <c r="J11" s="1">
+        <v>663780020907</v>
+      </c>
+      <c r="K11" s="1">
+        <v>38542235695</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="6"/>
+        <v>7.48897216596148E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11106209539007619</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9127276524221879</v>
       </c>
     </row>
   </sheetData>
@@ -572,49 +1055,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -627,82 +1110,573 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2*2*(FLOOR((A2-2)/8,1)*(16+24+(A2-3)*(24+8))+MOD(A2-2,8)*(2+3+(A2-3)*(3+1)))</f>
+        <v>528000</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2" si="0">C2/B2</f>
-        <v>100000.00000000001</v>
+        <f>B2*2*(FLOOR((A2-2)/8,1)*(24+16+(A2-3)*(16+8))+MOD(A2-2,8)*(3+2+(A2-3)*(2+1)))</f>
+        <v>416000</v>
       </c>
       <c r="E2" s="1">
-        <f>D2*2*(FLOOR((A2-2)/8,1)*(16+24+(A2-3)*(24+8))+MOD(A2-2,8)*(2+3+(A2-3)*(3+1)))</f>
-        <v>3087600000.0000005</v>
+        <f t="shared" ref="E2" si="0">C2+D2</f>
+        <v>944000</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*2*(FLOOR((A2-2)/8,1)*(24+16+(A2-3)*(16+8))+MOD(A2-2,8)*(3+2+(A2-3)*(2+1)))</f>
-        <v>2331200000.0000005</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2" si="1">E2+F2</f>
-        <v>5418800000.000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4820589804</v>
-      </c>
-      <c r="I2" s="2">
+        <v>609455</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/F2</f>
+        <v>1.5489248590954212</v>
+      </c>
+      <c r="H2" s="2">
+        <f>2*E2/(MIN(C2:D2)+ABS(D2-C2))</f>
+        <v>3.5757575757575757</v>
+      </c>
+      <c r="I2" s="3">
         <f>G2/H2</f>
-        <v>1.1240948141871814</v>
-      </c>
-      <c r="J2" s="2">
-        <f>2*G2/(MIN(E2:F2)+ABS(F2-E2))</f>
-        <v>3.5100401606425704</v>
-      </c>
-      <c r="K2" s="3">
-        <f>I2/J2</f>
-        <v>0.32025126857277819</v>
-      </c>
-      <c r="L2">
-        <v>446656891</v>
-      </c>
-      <c r="M2">
-        <v>19796</v>
-      </c>
-      <c r="N2">
-        <v>1204</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:Q2" si="2">$G$2/(L2*64)</f>
-        <v>0.1895610516843006</v>
-      </c>
-      <c r="P2">
+        <v>0.43317390127244831</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7524</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3712</v>
+      </c>
+      <c r="L2" s="1">
+        <v>922</v>
+      </c>
+      <c r="M2" s="5">
+        <f>$E2/(J2*64)</f>
+        <v>1.9603934077618288</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:O11" si="1">$E2/(K2*64)</f>
+        <v>3.9735991379310347</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="1"/>
+        <v>15.997830802603037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C11" si="2">B3*2*(FLOOR((A3-2)/8,1)*(16+24+(A3-3)*(24+8))+MOD(A3-2,8)*(2+3+(A3-3)*(3+1)))</f>
+        <v>2080000</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="3">B3*2*(FLOOR((A3-2)/8,1)*(24+16+(A3-3)*(16+8))+MOD(A3-2,8)*(3+2+(A3-3)*(2+1)))</f>
+        <v>1600000</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E11" si="4">C3+D3</f>
+        <v>3680000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2140148</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="5">E3/F3</f>
+        <v>1.7195072490313754</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="6">2*E3/(MIN(C3:D3)+ABS(D3-C3))</f>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I11" si="7">G3/H3</f>
+        <v>0.48594770081321481</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9065</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4069</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1007</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M11" si="8">$E3/(J3*64)</f>
+        <v>6.3430777716492006</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="1"/>
+        <v>14.131236175964611</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="1"/>
+        <v>57.100297914597817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="2"/>
-        <v>4277.0635481915542</v>
-      </c>
-      <c r="Q2">
+        <v>8256000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="3"/>
+        <v>6272000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="4"/>
+        <v>14528000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8580912</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>1.693060131603727</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5193798449612403</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="7"/>
+        <v>0.48106774664511187</v>
+      </c>
+      <c r="J4" s="1">
+        <v>85116</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4696</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1017</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="8"/>
+        <v>2.666948634804267</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>48.339011925042591</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>223.20550639134709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="2"/>
-        <v>70322.882059800671</v>
+        <v>32896000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>24832000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="4"/>
+        <v>57728000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>34565558</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6701017816637012</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5097276264591439</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.47584939898843814</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20930905</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7655</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1022</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="8"/>
+        <v>4.3094171035605006E-2</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>117.8314826910516</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>882.58317025440317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>115440000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>86880000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>202320000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>124533788</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6246193362398966</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5051975051975051</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.46348867184542725</v>
+      </c>
+      <c r="J6" s="1">
+        <v>129531963</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3459625</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1061</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="8"/>
+        <v>2.4405173262139167E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.91375510351555445</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>2979.5004712535342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>242</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>461280000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>346560000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>807840000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>570110102</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4169894502237745</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="6"/>
+        <v>3.502601456815817</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.4045534348381008</v>
+      </c>
+      <c r="J7" s="1">
+        <v>792273251</v>
+      </c>
+      <c r="K7" s="1">
+        <v>218016192</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1052</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="8"/>
+        <v>1.5932003237605203E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7897075828202707E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>11998.574144486693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>482</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>1844160000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>1384320000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>3228480000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2455958232</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3145500432109956</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5013014055179594</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.37544612444369946</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3339787446</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1297444347</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1216</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="8"/>
+        <v>1.5104254631658376E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>3.8880280388627723E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>41484.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>962</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>7374720000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>5533440000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>12908160000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13341730856</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>0.96750265309054595</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="6"/>
+        <v>3.500650872168706</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.27637793325307058</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14055724285</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7345197550</v>
+      </c>
+      <c r="L9" s="1">
+        <v>809193</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="8"/>
+        <v>1.4349313910151162E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7458757729395582E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>249.24832518323811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>1922</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>29495040000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>22126080000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>51621120000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>77109120432</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.66945543809597685</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5003254784533264</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="7"/>
+        <v>0.19125519675724162</v>
+      </c>
+      <c r="J10" s="1">
+        <v>59007828325</v>
+      </c>
+      <c r="K10" s="1">
+        <v>36446923740</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7789079598</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="8"/>
+        <v>1.3669033802728072E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2130262783050452E-2</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10355267138457609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>3842</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>117972480000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>88488960000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="4"/>
+        <v>206461440000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>322608921400</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.63997436618936598</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5001627498209751</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="7"/>
+        <v>0.18284131679936858</v>
+      </c>
+      <c r="J11" s="1">
+        <v>258803668862</v>
+      </c>
+      <c r="K11" s="1">
+        <v>161272355675</v>
+      </c>
+      <c r="L11" s="1">
+        <v>38520460874</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2464892844004292E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0003180250563423E-2</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3746661561295427E-2</v>
       </c>
     </row>
   </sheetData>
@@ -721,49 +1695,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -776,82 +1750,573 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2*2*(FLOOR((A2-2)/8,1)*(16+24+(A2-3)*(24+8))+MOD(A2-2,8)*(2+3+(A2-3)*(3+1)))</f>
+        <v>528000</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2" si="0">C2/B2</f>
-        <v>100000.00000000001</v>
+        <f>B2*((FLOOR((A2-2)/8,1)*(24+16+(A2-3)*(16+8))+MOD(A2-2,8)*(3+2+(A2-3)*(2+1)))+(FLOOR((A2-2)/8,1)*(32+24+(A2-3)*(32+8))+MOD(A2-2,8)*(3+2+(A2-3)*(2+1))))</f>
+        <v>544000</v>
       </c>
       <c r="E2" s="1">
-        <f>D2*2*(FLOOR((A2-2)/8,1)*(16+24+(A2-3)*(24+8))+MOD(A2-2,8)*(2+3+(A2-3)*(3+1)))</f>
-        <v>3087600000.0000005</v>
+        <f t="shared" ref="E2" si="0">C2+D2</f>
+        <v>1072000</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*((FLOOR((A2-2)/8,1)*(24+16+(A2-3)*(16+8))+MOD(A2-2,8)*(3+2+(A2-3)*(2+1)))+(FLOOR((A2-2)/8,1)*(32+24+(A2-3)*(32+8))+MOD(A2-2,8)*(3+2+(A2-3)*(2+1))))</f>
-        <v>3025600000.0000005</v>
-      </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2" si="1">E2+F2</f>
-        <v>6113200000.000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4820589804</v>
-      </c>
-      <c r="I2" s="2">
+        <v>556954</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/F2</f>
+        <v>1.9247550066971419</v>
+      </c>
+      <c r="H2" s="2">
+        <f>2*E2/(MIN(C2:D2)+ABS(D2-C2))</f>
+        <v>3.9411764705882355</v>
+      </c>
+      <c r="I2" s="3">
         <f>G2/H2</f>
-        <v>1.2681435775612824</v>
-      </c>
-      <c r="J2" s="2">
-        <f>2*G2/(MIN(E2:F2)+ABS(F2-E2))</f>
-        <v>3.9598393574297188</v>
-      </c>
-      <c r="K2" s="3">
-        <f>I2/J2</f>
-        <v>0.32025126857277819</v>
-      </c>
-      <c r="L2">
-        <v>446656891</v>
-      </c>
-      <c r="M2">
-        <v>19796</v>
-      </c>
-      <c r="N2">
-        <v>1204</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:Q2" si="2">$G$2/(L2*64)</f>
-        <v>0.21385262810151073</v>
-      </c>
-      <c r="P2">
+        <v>0.48837067334106582</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8280</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3819</v>
+      </c>
+      <c r="L2" s="1">
+        <v>943</v>
+      </c>
+      <c r="M2" s="5">
+        <f>$E2/(J2*64)</f>
+        <v>2.0229468599033815</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:O11" si="1">$E2/(K2*64)</f>
+        <v>4.3859649122807021</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="1"/>
+        <v>17.762460233297986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C11" si="2">B3*2*(FLOOR((A3-2)/8,1)*(16+24+(A3-3)*(24+8))+MOD(A3-2,8)*(2+3+(A3-3)*(3+1)))</f>
+        <v>2080000</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="3">B3*((FLOOR((A3-2)/8,1)*(24+16+(A3-3)*(16+8))+MOD(A3-2,8)*(3+2+(A3-3)*(2+1)))+(FLOOR((A3-2)/8,1)*(32+24+(A3-3)*(32+8))+MOD(A3-2,8)*(3+2+(A3-3)*(2+1))))</f>
+        <v>2112000</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E11" si="4">C3+D3</f>
+        <v>4192000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2030545</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="5">E3/F3</f>
+        <v>2.064470376179794</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="6">2*E3/(MIN(C3:D3)+ABS(D3-C3))</f>
+        <v>3.9696969696969697</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I11" si="7">G3/H3</f>
+        <v>0.52005742300712365</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8989</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4726</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1047</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M11" si="8">$E3/(J3*64)</f>
+        <v>7.2866837245522307</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="1"/>
+        <v>13.859500634786288</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="1"/>
+        <v>62.559694364851957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="2"/>
-        <v>4825.1540715296023</v>
-      </c>
-      <c r="Q2">
+        <v>8256000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="3"/>
+        <v>8320000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="4"/>
+        <v>16576000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7175058</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3102252274476389</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9846153846153847</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="7"/>
+        <v>0.57978625399265071</v>
+      </c>
+      <c r="J4" s="1">
+        <v>23086</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5258</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="8"/>
+        <v>11.218920557913886</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>49.258273107645493</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>256.6897918731417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="2"/>
-        <v>79334.509966777419</v>
+        <v>32896000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>33024000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="4"/>
+        <v>65920000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32227887</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0454335091841425</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9922480620155039</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.51235130618398905</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20653787</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7019</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1022</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="8"/>
+        <v>4.9869789012542833E-2</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>146.74455050577006</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>1007.8277886497065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>115440000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>115680000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>231120000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>118033356</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9580905587400226</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>3.995850622406639</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.49003097056733691</v>
+      </c>
+      <c r="J6" s="1">
+        <v>128968216</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8787574</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1008</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="8"/>
+        <v>2.8001085166596395E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41094959769328826</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>3582.5892857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>242</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>461280000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>461760000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>923040000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>514134617</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.795327467708715</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="6"/>
+        <v>3.997920997920998</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.44906526883405717</v>
+      </c>
+      <c r="J7" s="1">
+        <v>746686255</v>
+      </c>
+      <c r="K7" s="1">
+        <v>211848137</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1075</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9315341488373855E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8079428048026691E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>13416.279069767443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>482</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>1844160000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>1845120000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>3689280000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2113379757</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7456777409645643</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9989594172736731</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.43653299741528656</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3112232036</v>
+      </c>
+      <c r="K8" s="1">
+        <v>913585507</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2165</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="8"/>
+        <v>1.8522076546094651E-2</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>6.309754211107467E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>26625.866050808316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>962</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>7374720000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>7376640000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>14751360000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11778571009</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2523896140481297</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9994794377928162</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.31313815548437551</v>
+      </c>
+      <c r="J9" s="1">
+        <v>13268034301</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6349474537</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1064463</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="8"/>
+        <v>1.7371827263261461E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>3.630064167623262E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>216.53171599200724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>1922</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>29495040000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>29498880000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>58993920000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>63603267703</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9275297029623748</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9997396511325176</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23189751930472444</v>
+      </c>
+      <c r="J10" s="1">
+        <v>55974679645</v>
+      </c>
+      <c r="K10" s="1">
+        <v>33587268503</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7733202693</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6467803046771683E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7444327600431903E-2</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11919770327944254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>3842</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>117972480000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>117980160000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="4"/>
+        <v>235952640000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>288138307328</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8188867429258726</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9998698086186693</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="7"/>
+        <v>0.20472834919811306</v>
+      </c>
+      <c r="J11" s="1">
+        <v>243818914456</v>
+      </c>
+      <c r="K11" s="1">
+        <v>149636781655</v>
+      </c>
+      <c r="L11" s="1">
+        <v>37848264041</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="8"/>
+        <v>1.5120894161249822E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4638059969106597E-2</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>9.7408958994955025E-2</v>
       </c>
     </row>
   </sheetData>
@@ -867,4 +2332,651 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>289774979577</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17036254999</v>
+      </c>
+      <c r="F3" s="5">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300646909920</v>
+      </c>
+      <c r="C4" s="5">
+        <f>$B$4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>21204302129</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">$E$3/E4</f>
+        <v>0.80343389258260078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>152976012295</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C13" si="1">$B$4/B5</f>
+        <v>1.9653206107911247</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26101815056</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65268468734644147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>81678153773</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6808729878439488</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28164078259</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60489304291561408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>62859134506</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7828674747550464</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30825554830</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55266661355986368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>47518479658</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>6.326947160006295</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>36256056443</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46988714908317641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>53653018170</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>5.6035414255242451</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46046129469</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.36998234586621342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46556729735</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4576466524018414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>48420333428</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2091044946449108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>48674157041</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>6.1767255602753277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44813138615</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>6.7089009877867936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1928770</v>
+      </c>
+      <c r="D2" s="1">
+        <v>984673</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7297062</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4466187</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>29534200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17933604</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>117667172</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70529758</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1">
+        <v>742727438</v>
+      </c>
+      <c r="D6" s="1">
+        <v>424078593</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>242</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3119875776</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1674315443</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>482</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14822367366</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6897876151</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>962</v>
+      </c>
+      <c r="C9" s="1">
+        <v>93828448269</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30231108504</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1922</v>
+      </c>
+      <c r="C10" s="1">
+        <v>804670339872</v>
+      </c>
+      <c r="D10" s="1">
+        <v>139269726014</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3842</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3523207716584</v>
+      </c>
+      <c r="D11" s="1">
+        <v>728742030923</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>728632702118</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41555343536</v>
+      </c>
+      <c r="F3" s="5">
+        <f>$E$3/E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>733314727132</v>
+      </c>
+      <c r="C4" s="5">
+        <f>$B$4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>47053883254</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">$E$3/E4</f>
+        <v>0.88314376332515399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>380862967514</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C13" si="1">$B$4/B5</f>
+        <v>1.9254030706071321</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>57779151942</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71920999425042065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>231011424735</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>3.174365631367396</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60312988433</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68899493484993968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>161230160220</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5482478348429689</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>65120138320</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63813352686379854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>122628513899</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.9799691263972825</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>68353349704</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60794889666640883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>98513025514</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>7.4438352015468885</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>82384155609</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.50440941257229222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>82500722689</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8885854963519542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>69811242071</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>10.50424982248845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>72087170374</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>10.172610789512802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>63151564389</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>11.611980387610664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/plots/perf_data.xlsx
+++ b/Report/plots/perf_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>N</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>N = 3840</t>
+  </si>
+  <si>
+    <t>N = 7680</t>
   </si>
 </sst>
 </file>
@@ -2336,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2352,6 +2358,9 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
@@ -2572,6 +2581,142 @@
       <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>6.7089009877867936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1628927133144</v>
+      </c>
+      <c r="C17" s="5">
+        <f>$B$17/B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>875899735704</v>
+      </c>
+      <c r="C18" s="5">
+        <f>$B$17/B18</f>
+        <v>1.8597187175022469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>452355152308</v>
+      </c>
+      <c r="C19" s="5">
+        <f>$B$17/B19</f>
+        <v>3.6009916651394622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>327365800187</v>
+      </c>
+      <c r="C20" s="5">
+        <f>$B$17/B20</f>
+        <v>4.9758622684883811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>254374423524</v>
+      </c>
+      <c r="C21" s="5">
+        <f>$B$17/B21</f>
+        <v>6.4036592617194161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>231848527750</v>
+      </c>
+      <c r="C22" s="5">
+        <f>$B$17/B22</f>
+        <v>7.0258247872095883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>220340724398</v>
+      </c>
+      <c r="C23" s="5">
+        <f>$B$17/B23</f>
+        <v>7.3927647174367985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>237683005100</v>
+      </c>
+      <c r="C24" s="5">
+        <f>$B$17/B24</f>
+        <v>6.8533597194240459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>218365048581</v>
+      </c>
+      <c r="C25" s="5">
+        <f>$B$17/B25</f>
+        <v>7.459651366962091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>226347044864</v>
+      </c>
+      <c r="C26" s="5">
+        <f>$B$17/B26</f>
+        <v>7.1965911201656567</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2886,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2754,6 +2899,9 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
+      <c r="B1" s="1">
+        <v>3840</v>
+      </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>

--- a/Report/plots/perf_data.xlsx
+++ b/Report/plots/perf_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ADI_serial" sheetId="1" r:id="rId1"/>
@@ -456,20 +456,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="8.5703125"/>
-    <col min="9" max="13" width="8.7109375"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="1025" width="8.5703125"/>
   </cols>
@@ -558,15 +560,15 @@
         <v>940</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L11" si="5">$F2/(I2*64/10)</f>
+        <f>$F2/(I2*64/10)</f>
         <v>38.730158730158728</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M11" si="6">$F2/(J2*64/10)</f>
+        <f t="shared" ref="M2:M11" si="5">$F2/(J2*64/10)</f>
         <v>77.529232333502804</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N11" si="7">$F2/(K2*64/10)</f>
+        <f t="shared" ref="N2:N11" si="6">$F2/(K2*64/10)</f>
         <v>324.468085106383</v>
       </c>
     </row>
@@ -610,15 +612,15 @@
         <v>977</v>
       </c>
       <c r="L3" s="3">
+        <f t="shared" ref="L2:L11" si="7">$F3/(I3*64/10)</f>
+        <v>139.27576601671308</v>
+      </c>
+      <c r="M3" s="3">
         <f t="shared" si="5"/>
-        <v>139.27576601671308</v>
-      </c>
-      <c r="M3" s="3">
+        <v>319.3663771078181</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" si="6"/>
-        <v>319.3663771078181</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="7"/>
         <v>1279.4268167860798</v>
       </c>
     </row>
@@ -662,15 +664,15 @@
         <v>946</v>
       </c>
       <c r="L4" s="3">
+        <f t="shared" si="7"/>
+        <v>283.29880745758919</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="5"/>
-        <v>283.29880745758919</v>
-      </c>
-      <c r="M4" s="3">
+        <v>1040.7239819004526</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="6"/>
-        <v>1040.7239819004526</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" si="7"/>
         <v>5348.8372093023263</v>
       </c>
     </row>
@@ -714,15 +716,15 @@
         <v>982</v>
       </c>
       <c r="L5" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0171124168494363</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="5"/>
-        <v>1.0171124168494363</v>
-      </c>
-      <c r="M5" s="3">
+        <v>3515.8003798998443</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="6"/>
-        <v>3515.8003798998443</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="7"/>
         <v>20733.197556008145</v>
       </c>
     </row>
@@ -766,15 +768,15 @@
         <v>983</v>
       </c>
       <c r="L6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.7966485862492716</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="5"/>
-        <v>0.7966485862492716</v>
-      </c>
-      <c r="M6" s="3">
+        <v>173.09779331966718</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="6"/>
-        <v>173.09779331966718</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="7"/>
         <v>73016.276703967451</v>
       </c>
     </row>
@@ -818,15 +820,15 @@
         <v>1526</v>
       </c>
       <c r="L7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.11297619452733153</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="5"/>
-        <v>0.11297619452733153</v>
-      </c>
-      <c r="M7" s="3">
+        <v>1.4442106256866374</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="6"/>
-        <v>1.4442106256866374</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="7"/>
         <v>188433.81389252949</v>
       </c>
     </row>
@@ -870,15 +872,15 @@
         <v>1163</v>
       </c>
       <c r="L8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.13902928857192301</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="5"/>
-        <v>0.13902928857192301</v>
-      </c>
-      <c r="M8" s="3">
+        <v>0.37857981065600621</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="6"/>
-        <v>0.37857981065600621</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="7"/>
         <v>989767.84178847808</v>
       </c>
     </row>
@@ -922,15 +924,15 @@
         <v>287681</v>
       </c>
       <c r="L9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.1109471858798966</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="5"/>
-        <v>0.1109471858798966</v>
-      </c>
-      <c r="M9" s="3">
+        <v>0.6294274614911799</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="6"/>
-        <v>0.6294274614911799</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="7"/>
         <v>16011.484943392161</v>
       </c>
     </row>
@@ -974,15 +976,15 @@
         <v>7893370650</v>
       </c>
       <c r="L10" s="3">
+        <f t="shared" si="7"/>
+        <v>9.4924798542548497E-2</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="5"/>
-        <v>9.4924798542548497E-2</v>
-      </c>
-      <c r="M10" s="3">
+        <v>0.13211342271344223</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="6"/>
-        <v>0.13211342271344223</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="7"/>
         <v>2.3346680166349465</v>
       </c>
     </row>
@@ -1026,15 +1028,15 @@
         <v>38542235695</v>
       </c>
       <c r="L11" s="3">
+        <f t="shared" si="7"/>
+        <v>7.48897216596148E-2</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>7.48897216596148E-2</v>
-      </c>
-      <c r="M11" s="3">
+        <v>0.11106209539007619</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="6"/>
-        <v>0.11106209539007619</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="7"/>
         <v>1.9127276524221879</v>
       </c>
     </row>
@@ -1042,7 +1044,7 @@
       <c r="A12">
         <v>7682</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>1000</v>
       </c>
       <c r="C12" s="1">
@@ -1068,22 +1070,31 @@
         <f t="shared" si="4"/>
         <v>0.27424815382317891</v>
       </c>
-      <c r="L12" s="3" t="e">
+      <c r="I12" s="1">
+        <v>3528229359318</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2491589212433</v>
+      </c>
+      <c r="K12" s="1">
+        <v>151962447726</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" ref="L12" si="8">$F12/(I12*64/10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="3" t="e">
+        <v>8.358232131966703E-2</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" ref="M12" si="9">$F12/(J12*64/10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="3" t="e">
+        <v>0.11835723101082014</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" ref="N12" si="10">$F12/(K12*64/10)</f>
-        <v>#DIV/0!</v>
+        <v>1.9405952221283187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1095,25 +1106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="1"/>
-    <col min="7" max="7" width="8.5703125"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="8.28515625"/>
     <col min="9" max="9" width="7.140625"/>
     <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="14" width="8.5703125"/>
-    <col min="15" max="15" width="9.7109375"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
@@ -1208,16 +1219,16 @@
         <v>922</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M11" si="6">$E2/(J2*64)</f>
-        <v>1.9603934077618288</v>
+        <f>$E2/(J2*64/10)</f>
+        <v>19.603934077618288</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N11" si="7">$E2/(K2*64)</f>
-        <v>3.9735991379310347</v>
+        <f>$E2/(K2*64/10)</f>
+        <v>39.735991379310349</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O11" si="8">$E2/(L2*64)</f>
-        <v>15.997830802603037</v>
+        <f t="shared" ref="N2:O12" si="6">$E2/(L2*64/10)</f>
+        <v>159.97830802603036</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1264,16 +1275,16 @@
         <v>1007</v>
       </c>
       <c r="M3" s="3">
+        <f t="shared" ref="M3:M12" si="7">$E3/(J3*64/10)</f>
+        <v>63.430777716492003</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" si="6"/>
-        <v>6.3430777716492006</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="7"/>
-        <v>14.131236175964611</v>
+        <v>141.31236175964611</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" si="8"/>
-        <v>57.100297914597817</v>
+        <f t="shared" si="6"/>
+        <v>571.00297914597809</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1320,16 +1331,16 @@
         <v>1017</v>
       </c>
       <c r="M4" s="3">
+        <f t="shared" si="7"/>
+        <v>26.669486348042671</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="6"/>
-        <v>2.666948634804267</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" si="7"/>
-        <v>48.339011925042591</v>
+        <v>483.39011925042587</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="8"/>
-        <v>223.20550639134709</v>
+        <f t="shared" si="6"/>
+        <v>2232.0550639134708</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1376,16 +1387,16 @@
         <v>1022</v>
       </c>
       <c r="M5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.43094171035605006</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="6"/>
-        <v>4.3094171035605006E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="7"/>
-        <v>117.8314826910516</v>
+        <v>1178.3148269105161</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="8"/>
-        <v>882.58317025440317</v>
+        <f t="shared" si="6"/>
+        <v>8825.8317025440319</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1432,16 +1443,16 @@
         <v>1061</v>
       </c>
       <c r="M6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.24405173262139165</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="6"/>
-        <v>2.4405173262139167E-2</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="7"/>
-        <v>0.91375510351555445</v>
+        <v>9.1375510351555445</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="8"/>
-        <v>2979.5004712535342</v>
+        <f t="shared" si="6"/>
+        <v>29795.004712535345</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1488,16 +1499,16 @@
         <v>1052</v>
       </c>
       <c r="M7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15932003237605205</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="6"/>
-        <v>1.5932003237605203E-2</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="7"/>
-        <v>5.7897075828202707E-2</v>
+        <v>0.57897075828202704</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="8"/>
-        <v>11998.574144486693</v>
+        <f t="shared" si="6"/>
+        <v>119985.74144486692</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1544,16 +1555,16 @@
         <v>1216</v>
       </c>
       <c r="M8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15104254631658376</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="6"/>
-        <v>1.5104254631658376E-2</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="7"/>
-        <v>3.8880280388627723E-2</v>
+        <v>0.38880280388627719</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="8"/>
-        <v>41484.375</v>
+        <f t="shared" si="6"/>
+        <v>414843.75</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1600,16 +1611,16 @@
         <v>809193</v>
       </c>
       <c r="M9" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14349313910151162</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="6"/>
-        <v>1.4349313910151162E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="7"/>
-        <v>2.7458757729395582E-2</v>
+        <v>0.27458757729395583</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="8"/>
-        <v>249.24832518323811</v>
+        <f t="shared" si="6"/>
+        <v>2492.483251832381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1656,16 +1667,16 @@
         <v>7789079598</v>
       </c>
       <c r="M10" s="3">
+        <f t="shared" si="7"/>
+        <v>0.13669033802728073</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="6"/>
-        <v>1.3669033802728072E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="7"/>
-        <v>2.2130262783050452E-2</v>
+        <v>0.22130262783050453</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10355267138457609</v>
+        <f t="shared" si="6"/>
+        <v>1.0355267138457609</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1712,16 +1723,16 @@
         <v>38520460874</v>
       </c>
       <c r="M11" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12464892844004291</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="6"/>
-        <v>1.2464892844004292E-2</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="7"/>
-        <v>2.0003180250563423E-2</v>
+        <v>0.20003180250563424</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="8"/>
-        <v>8.3746661561295427E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.83746661561295421</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1758,22 +1769,31 @@
         <f t="shared" si="5"/>
         <v>0.18216278527099214</v>
       </c>
-      <c r="M12" s="3" t="e">
-        <f t="shared" ref="M12" si="9">$E12/(J12*64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="3" t="e">
-        <f t="shared" ref="N12" si="10">$E12/(K12*64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="3" t="e">
-        <f t="shared" ref="O12" si="11">$E12/(L12*64)</f>
-        <v>#DIV/0!</v>
+      <c r="J12" s="1">
+        <v>1162706322942</v>
+      </c>
+      <c r="K12" s="1">
+        <v>762121984961</v>
+      </c>
+      <c r="L12" s="1">
+        <v>153303507648</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="7"/>
+        <v>0.11097488458952549</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16930518020235683</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8416715441127961</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1785,22 +1805,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.5703125"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="8.5703125"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="12" width="8.5703125"/>
-    <col min="13" max="13" width="10.140625"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
@@ -1881,16 +1901,16 @@
         <v>943</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K11" si="4">$E2/(H2*64)</f>
-        <v>2.0229468599033815</v>
+        <f>$E2/(H2*64/10)</f>
+        <v>20.229468599033815</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L11" si="5">$E2/(I2*64)</f>
-        <v>4.3859649122807021</v>
+        <f t="shared" ref="L2:M12" si="4">$E2/(I2*64/10)</f>
+        <v>43.859649122807021</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M11" si="6">$E2/(J2*64)</f>
-        <v>17.762460233297986</v>
+        <f t="shared" si="4"/>
+        <v>177.62460233297986</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1929,16 +1949,16 @@
         <v>1047</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="4"/>
-        <v>7.2866837245522307</v>
+        <f t="shared" ref="K3:K12" si="5">$E3/(H3*64/10)</f>
+        <v>72.866837245522305</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="5"/>
-        <v>13.859500634786288</v>
+        <f t="shared" si="4"/>
+        <v>138.59500634786289</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" si="6"/>
-        <v>62.559694364851957</v>
+        <f t="shared" si="4"/>
+        <v>625.59694364851953</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1977,16 +1997,16 @@
         <v>1009</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="4"/>
-        <v>11.218920557913886</v>
+        <f t="shared" si="5"/>
+        <v>112.18920557913887</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="5"/>
-        <v>49.258273107645493</v>
+        <f t="shared" si="4"/>
+        <v>492.58273107645499</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="6"/>
-        <v>256.6897918731417</v>
+        <f t="shared" si="4"/>
+        <v>2566.8979187314171</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2025,16 +2045,16 @@
         <v>1022</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9869789012542833E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.49869789012542837</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="5"/>
-        <v>146.74455050577006</v>
+        <f t="shared" si="4"/>
+        <v>1467.4455050577005</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="6"/>
-        <v>1007.8277886497065</v>
+        <f t="shared" si="4"/>
+        <v>10078.277886497064</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2073,16 +2093,16 @@
         <v>1008</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="4"/>
-        <v>2.8001085166596395E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.28001085166596396</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="5"/>
-        <v>0.41094959769328826</v>
+        <f t="shared" si="4"/>
+        <v>4.1094959769328829</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="6"/>
-        <v>3582.5892857142858</v>
+        <f t="shared" si="4"/>
+        <v>35825.892857142855</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2121,16 +2141,16 @@
         <v>1075</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="4"/>
-        <v>1.9315341488373855E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.19315341488373855</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="5"/>
-        <v>6.8079428048026691E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.68079428048026691</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="6"/>
-        <v>13416.279069767443</v>
+        <f t="shared" si="4"/>
+        <v>134162.79069767441</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2169,16 +2189,16 @@
         <v>2165</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="4"/>
-        <v>1.8522076546094651E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.18522076546094648</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="5"/>
-        <v>6.309754211107467E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.63097542111074667</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="6"/>
-        <v>26625.866050808316</v>
+        <f t="shared" si="4"/>
+        <v>266258.66050808312</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2217,16 +2237,16 @@
         <v>1064463</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="4"/>
-        <v>1.7371827263261461E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.17371827263261461</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="5"/>
-        <v>3.630064167623262E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.36300641676232615</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="6"/>
-        <v>216.53171599200724</v>
+        <f t="shared" si="4"/>
+        <v>2165.3171599200723</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2265,16 +2285,16 @@
         <v>7733202693</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6467803046771683E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.16467803046771684</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="5"/>
-        <v>2.7444327600431903E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.274443276004319</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="6"/>
-        <v>0.11919770327944254</v>
+        <f t="shared" si="4"/>
+        <v>1.1919770327944255</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2313,16 +2333,16 @@
         <v>37848264041</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="4"/>
-        <v>1.5120894161249822E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.15120894161249823</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="5"/>
-        <v>2.4638059969106597E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.24638059969106599</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="6"/>
-        <v>9.7408958994955025E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.97408958994955031</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2351,22 +2371,31 @@
         <f t="shared" si="3"/>
         <v>0.80124549028609748</v>
       </c>
-      <c r="K12" s="3" t="e">
-        <f t="shared" ref="K12" si="7">$E12/(H12*64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="3" t="e">
-        <f t="shared" ref="L12" si="8">$E12/(I12*64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="3" t="e">
-        <f t="shared" ref="M12" si="9">$E12/(J12*64)</f>
-        <v>#DIV/0!</v>
+      <c r="H12" s="1">
+        <v>1053733191403</v>
+      </c>
+      <c r="I12" s="1">
+        <v>669488703078</v>
+      </c>
+      <c r="J12" s="1">
+        <v>153182807373</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13994358458392978</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.22026241715809733</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96266155797058373</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2849,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3007,6 +3036,9 @@
       <c r="D11" s="6">
         <v>728742030923</v>
       </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Report/plots/perf_data.xlsx
+++ b/Report/plots/perf_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ADI_serial" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="ADI_scaling" sheetId="4" r:id="rId4"/>
     <sheet name="RW_runtime" sheetId="5" r:id="rId5"/>
     <sheet name="RW_scaling" sheetId="6" r:id="rId6"/>
+    <sheet name="ADI_factors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -109,15 +110,38 @@
   <si>
     <t>N = 7682</t>
   </si>
+  <si>
+    <t>Scalar speedup</t>
+  </si>
+  <si>
+    <t>AVX speedup</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,6 +152,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,13 +186,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1090,6 +1132,12 @@
         <v>1.9405952221283187</v>
       </c>
     </row>
+    <row r="16" spans="1:14">
+      <c r="G16" s="9">
+        <f>H2/4</f>
+        <v>0.18343520001202854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1102,17 +1150,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875"/>
     <col min="2" max="2" width="7.5703125" style="1"/>
-    <col min="3" max="5" width="8.5703125" style="1"/>
+    <col min="3" max="4" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1"/>
     <col min="7" max="7" width="6.140625"/>
     <col min="9" max="9" width="7"/>
@@ -1201,7 +1250,7 @@
         <f t="shared" ref="H2:H12" si="4">2*E2/(MIN(C2:D2)+ABS(D2-C2))</f>
         <v>3.5757575757575757</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="10">
         <f t="shared" ref="I2:I12" si="5">G2/H2</f>
         <v>0.43317390127244831</v>
       </c>
@@ -1257,7 +1306,7 @@
         <f t="shared" si="4"/>
         <v>3.5384615384615383</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="10">
         <f t="shared" si="5"/>
         <v>0.48594770081321481</v>
       </c>
@@ -1313,7 +1362,7 @@
         <f t="shared" si="4"/>
         <v>3.5193798449612403</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="10">
         <f t="shared" si="5"/>
         <v>0.48106774664511187</v>
       </c>
@@ -1369,7 +1418,7 @@
         <f t="shared" si="4"/>
         <v>3.5097276264591439</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="10">
         <f t="shared" si="5"/>
         <v>0.47584939898843814</v>
       </c>
@@ -1425,7 +1474,7 @@
         <f t="shared" si="4"/>
         <v>3.5051975051975051</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="10">
         <f t="shared" si="5"/>
         <v>0.46348867184542725</v>
       </c>
@@ -1481,7 +1530,7 @@
         <f t="shared" si="4"/>
         <v>3.502601456815817</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="10">
         <f t="shared" si="5"/>
         <v>0.4045534348381008</v>
       </c>
@@ -1537,7 +1586,7 @@
         <f t="shared" si="4"/>
         <v>3.5013014055179594</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <f t="shared" si="5"/>
         <v>0.37544612444369946</v>
       </c>
@@ -1593,7 +1642,7 @@
         <f t="shared" si="4"/>
         <v>3.500650872168706</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="10">
         <f t="shared" si="5"/>
         <v>0.27637793325307058</v>
       </c>
@@ -1649,7 +1698,7 @@
         <f t="shared" si="4"/>
         <v>3.5003254784533264</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="10">
         <f t="shared" si="5"/>
         <v>0.19125519675724162</v>
       </c>
@@ -1705,7 +1754,7 @@
         <f t="shared" si="4"/>
         <v>3.5001627498209751</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="10">
         <f t="shared" si="5"/>
         <v>0.18284131679936858</v>
       </c>
@@ -1761,7 +1810,7 @@
         <f t="shared" si="4"/>
         <v>3.500081377559324</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="10">
         <f t="shared" si="5"/>
         <v>0.18216278527099214</v>
       </c>
@@ -1786,6 +1835,134 @@
         <f t="shared" si="8"/>
         <v>0.8416715441127961</v>
       </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="H15">
+        <f>H2*4</f>
+        <v>14.303030303030303</v>
+      </c>
+      <c r="I15" s="9">
+        <f>G2/H15</f>
+        <v>0.10829347531811208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="H16" s="3">
+        <f t="shared" ref="H16:H31" si="9">H3*4</f>
+        <v>14.153846153846153</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" ref="I16:I25" si="10">G3/H16</f>
+        <v>0.1214869252033037</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="3">
+        <f t="shared" si="9"/>
+        <v>14.077519379844961</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="10"/>
+        <v>0.12026693666127797</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" s="3">
+        <f t="shared" si="9"/>
+        <v>14.038910505836576</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="10"/>
+        <v>0.11896234974710954</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="3">
+        <f t="shared" si="9"/>
+        <v>14.02079002079002</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="10"/>
+        <v>0.11587216796135681</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="3">
+        <f t="shared" si="9"/>
+        <v>14.010405827263268</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="10"/>
+        <v>0.1011383587095252</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="3">
+        <f t="shared" si="9"/>
+        <v>14.005205622071838</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="10"/>
+        <v>9.3861531110924865E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="3">
+        <f t="shared" si="9"/>
+        <v>14.002603488674824</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="10"/>
+        <v>6.9094483313267646E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" s="3">
+        <f t="shared" si="9"/>
+        <v>14.001301913813306</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="10"/>
+        <v>4.7813799189310405E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="3">
+        <f t="shared" si="9"/>
+        <v>14.0006509992839</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="10"/>
+        <v>4.5710329199842144E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25" s="3">
+        <f t="shared" si="9"/>
+        <v>14.000325510237296</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="10"/>
+        <v>4.5540696317748035E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1799,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1811,7 +1988,7 @@
     <col min="2" max="2" width="7.42578125" style="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="8.7109375" style="1"/>
-    <col min="7" max="7" width="6.140625"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9"/>
     <col min="11" max="11" width="7.5703125"/>
     <col min="12" max="12" width="8.28515625"/>
@@ -2386,6 +2563,114 @@
       <c r="M12" s="2">
         <f t="shared" si="6"/>
         <v>0.96266155797058373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="9">
+        <f>G2/16</f>
+        <v>0.12029718791857137</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="9">
+        <f t="shared" ref="G17:G33" si="7">G3/16</f>
+        <v>0.12902939851123713</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="9">
+        <f t="shared" si="7"/>
+        <v>0.14438907671547743</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="9">
+        <f t="shared" si="7"/>
+        <v>0.1278395943240089</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="9">
+        <f t="shared" si="7"/>
+        <v>0.12238065992125141</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="9">
+        <f t="shared" si="7"/>
+        <v>0.11220796673179469</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="9">
+        <f t="shared" si="7"/>
+        <v>0.10910485881028527</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="9">
+        <f t="shared" si="7"/>
+        <v>7.8274350878008103E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="9">
+        <f t="shared" si="7"/>
+        <v>5.7970606435148425E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="9">
+        <f t="shared" si="7"/>
+        <v>5.1180421432867038E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="9">
+        <f t="shared" si="7"/>
+        <v>5.0077843142881093E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="9">
+        <f t="shared" si="7"/>
+        <v>7.5185742449107107E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="9">
+        <f t="shared" si="7"/>
+        <v>8.0643374069523203E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="9">
+        <f t="shared" si="7"/>
+        <v>9.0243172947173395E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="9">
+        <f t="shared" si="7"/>
+        <v>7.9899746452505565E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2688,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2864,6 +3149,10 @@
         <f t="shared" si="2"/>
         <v>7.1965911201656567</v>
       </c>
+      <c r="D26" s="9">
+        <f>C23/12</f>
+        <v>0.61606372645306651</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2873,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2885,12 +3174,12 @@
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625"/>
     <col min="4" max="4" width="19" style="1"/>
-    <col min="5" max="5" width="8.42578125"/>
-    <col min="6" max="6" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
     <col min="7" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2903,150 +3192,262 @@
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>57510026</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1928770</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>984673</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5">
+        <f>B2/C2</f>
+        <v>29.816943440638333</v>
+      </c>
+      <c r="F2" s="5">
+        <f>B2/D2</f>
+        <v>58.405202539320157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>180314810</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>7297062</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4466187</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E11" si="0">B3/C3</f>
+        <v>24.710604075996613</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F11" si="1">B3/D3</f>
+        <v>40.373322926245585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>626389754</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>29534200</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>17933604</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>21.208962964969427</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>34.928269521285294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2323041132</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>117667172</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>70529758</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>19.742474409090072</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>32.937035343294383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>122</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>13844061532</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>742727438</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>424078593</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>18.63949118303611</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>32.645037407016673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>242</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>54539402828</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3119875776</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1674315443</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>17.48127385312921</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>32.5741502630338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>482</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>216986792722</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>14822367366</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>6897876151</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>14.639145513268748</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>31.457043874373266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>962</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>874046825950</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>93828448269</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>30231108504</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3153712128347799</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>28.912165950988907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1922</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3646932527992</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>804670339872</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>139269726014</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5322069763030193</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>26.186111169812989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>3842</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>17157730882416</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3523207716584</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>728742030923</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8699174907154319</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>23.544313562763215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7">
+        <f>AVERAGE(E2:E11)</f>
+        <v>16.495639111998177</v>
+      </c>
+      <c r="F12" s="7">
+        <f>AVERAGE(F2:F11)</f>
+        <v>34.196265255813429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7">
+        <f>MAX(E2:E11)</f>
+        <v>29.816943440638333</v>
+      </c>
+      <c r="F13" s="7">
+        <f>MAX(F2:F11)</f>
+        <v>58.405202539320157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3054,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3516,9 +3917,326 @@
         <f t="shared" si="2"/>
         <v>13.234241972648345</v>
       </c>
+      <c r="D26" s="9">
+        <f>C23/12</f>
+        <v>0.85116310219391567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <f>ADI_serial!G2/ADI_scalar!F2</f>
+        <v>4.3651130928452471</v>
+      </c>
+      <c r="C3" s="5">
+        <f>ADI_scalar!G2/ADI_serial!H2</f>
+        <v>2.1109973153923733</v>
+      </c>
+      <c r="D3" s="5">
+        <f>ADI_serial!G2/ADI_AVX!F2</f>
+        <v>4.7765883717506297</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ADI_AVX!G2/ADI_serial!H2</f>
+        <v>2.6232083680925586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <f>ADI_serial!G3/ADI_scalar!F3</f>
+        <v>7.1079458056171818</v>
+      </c>
+      <c r="C4" s="5">
+        <f>ADI_scalar!G3/ADI_serial!H3</f>
+        <v>3.2696550705839038</v>
+      </c>
+      <c r="D4" s="5">
+        <f>ADI_serial!G3/ADI_AVX!F3</f>
+        <v>7.4916123503788388</v>
+      </c>
+      <c r="E4" s="5">
+        <f>ADI_AVX!G3/ADI_serial!H3</f>
+        <v>3.9256048715985119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <f>ADI_serial!G4/ADI_scalar!F4</f>
+        <v>7.8622612608077089</v>
+      </c>
+      <c r="C5" s="5">
+        <f>ADI_scalar!G4/ADI_serial!H4</f>
+        <v>3.5271409213504943</v>
+      </c>
+      <c r="D5" s="5">
+        <f>ADI_serial!G4/ADI_AVX!F4</f>
+        <v>9.4027632947357365</v>
+      </c>
+      <c r="E5" s="5">
+        <f>ADI_AVX!G4/ADI_serial!H4</f>
+        <v>4.8128768643014936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5">
+        <f>ADI_serial!G5/ADI_scalar!F5</f>
+        <v>8.2080921708250738</v>
+      </c>
+      <c r="C6" s="5">
+        <f>ADI_scalar!G5/ADI_serial!H5</f>
+        <v>3.636394468607179</v>
+      </c>
+      <c r="D6" s="5">
+        <f>ADI_serial!G5/ADI_AVX!F5</f>
+        <v>8.803471540036119</v>
+      </c>
+      <c r="E6" s="5">
+        <f>ADI_AVX!G5/ADI_serial!H5</f>
+        <v>4.4536226356764255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>122</v>
+      </c>
+      <c r="B7" s="5">
+        <f>ADI_serial!G6/ADI_scalar!F6</f>
+        <v>8.2179922448034741</v>
+      </c>
+      <c r="C7" s="5">
+        <f>ADI_scalar!G6/ADI_serial!H6</f>
+        <v>3.6195232300780193</v>
+      </c>
+      <c r="D7" s="5">
+        <f>ADI_serial!G6/ADI_AVX!F6</f>
+        <v>8.6705804077959119</v>
+      </c>
+      <c r="E7" s="5">
+        <f>ADI_AVX!G6/ADI_serial!H6</f>
+        <v>4.3624707067437107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>242</v>
+      </c>
+      <c r="B8" s="5">
+        <f>ADI_serial!G7/ADI_scalar!F7</f>
+        <v>7.2790956193230194</v>
+      </c>
+      <c r="C8" s="5">
+        <f>ADI_scalar!G7/ADI_serial!H7</f>
+        <v>3.1952837577779456</v>
+      </c>
+      <c r="D8" s="5">
+        <f>ADI_serial!G7/ADI_AVX!F7</f>
+        <v>8.0715941093692205</v>
+      </c>
+      <c r="E8" s="5">
+        <f>ADI_AVX!G7/ADI_serial!H7</f>
+        <v>4.0484286573596799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>482</v>
+      </c>
+      <c r="B9" s="5">
+        <f>ADI_serial!G8/ADI_scalar!F8</f>
+        <v>6.8056987900761658</v>
+      </c>
+      <c r="C9" s="5">
+        <f>ADI_scalar!G8/ADI_serial!H8</f>
+        <v>2.9824817606236835</v>
+      </c>
+      <c r="D9" s="5">
+        <f>ADI_serial!G8/ADI_AVX!F8</f>
+        <v>7.9089013286124707</v>
+      </c>
+      <c r="E9" s="5">
+        <f>ADI_AVX!G8/ADI_serial!H8</f>
+        <v>3.9606343244537037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>962</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ADI_serial!G9/ADI_scalar!F9</f>
+        <v>5.9090006630246172</v>
+      </c>
+      <c r="C10" s="5">
+        <f>ADI_scalar!G9/ADI_serial!H9</f>
+        <v>2.5873525763654102</v>
+      </c>
+      <c r="D10" s="5">
+        <f>ADI_serial!G9/ADI_AVX!F9</f>
+        <v>6.6931970282100623</v>
+      </c>
+      <c r="E10" s="5">
+        <f>ADI_AVX!G9/ADI_serial!H9</f>
+        <v>3.3492140658940932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>1922</v>
+      </c>
+      <c r="B11" s="5">
+        <f>ADI_serial!G10/ADI_scalar!F10</f>
+        <v>4.5910894335021508</v>
+      </c>
+      <c r="C11" s="5">
+        <f>ADI_scalar!G10/ADI_serial!H10</f>
+        <v>2.0094424449622128</v>
+      </c>
+      <c r="D11" s="5">
+        <f>ADI_serial!G10/ADI_AVX!F10</f>
+        <v>5.5659855354460355</v>
+      </c>
+      <c r="E11" s="5">
+        <f>ADI_AVX!G10/ADI_serial!H10</f>
+        <v>2.7840800866398854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>3842</v>
+      </c>
+      <c r="B12" s="5">
+        <f>ADI_serial!G11/ADI_scalar!F11</f>
+        <v>4.7915107337450094</v>
+      </c>
+      <c r="C12" s="5">
+        <f>ADI_scalar!G11/ADI_serial!H11</f>
+        <v>2.0967246647665312</v>
+      </c>
+      <c r="D12" s="5">
+        <f>ADI_serial!G11/ADI_AVX!F11</f>
+        <v>5.3647296120552577</v>
+      </c>
+      <c r="E12" s="5">
+        <f>ADI_AVX!G11/ADI_serial!H11</f>
+        <v>2.6828887565708515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>7682</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ADI_serial!G12/ADI_scalar!F12</f>
+        <v>5.3133764809389872</v>
+      </c>
+      <c r="C13" s="5">
+        <f>ADI_scalar!G12/ADI_serial!H12</f>
+        <v>2.324845449360506</v>
+      </c>
+      <c r="D13" s="5">
+        <f>ADI_serial!G12/ADI_AVX!F12</f>
+        <v>5.8426445998479748</v>
+      </c>
+      <c r="E13" s="5">
+        <f>ADI_AVX!G12/ADI_serial!H12</f>
+        <v>2.9216075992354695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7">
+        <f>AVERAGE(B3:B13)</f>
+        <v>6.4046523905007851</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:E14" si="0">AVERAGE(C3:C13)</f>
+        <v>2.8508946963516597</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>7.1447334707489327</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6295124487787622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
+        <f>MAX(B3:B13)</f>
+        <v>8.2179922448034741</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:E15" si="1">MAX(C3:C13)</f>
+        <v>3.636394468607179</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>9.4027632947357365</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8128768643014936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>